--- a/biology/Botanique/Parc_de_Lyötty/Parc_de_Lyötty.xlsx
+++ b/biology/Botanique/Parc_de_Lyötty/Parc_de_Lyötty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_Ly%C3%B6tty</t>
+          <t>Parc_de_Lyötty</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Lyötty (finnois : Lyötynpuisto) est un parc du fossé situé dans le quartier de Vanhatulli à Oulu en Finlande. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_Ly%C3%B6tty</t>
+          <t>Parc_de_Lyötty</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien dépôt de la ville a été transformé en parc dans les années 1960. 
 En s'écoulant dans le parc de Lyötty, le fossé forme un petit marais. 
-En été, le parc est remarquablement fleuri[1].
-L’œuvre Pohjan neito sculptée par Viljo Savikurki en 1967 a parfois été appelée l' Havis Amanda d'Oulu parce qu'autrefois, les étudiants la couvraient d'une casquette  lors de leur fête de Vappu du 1er mai[1].
-La sculpture environnementale "Vesilasi" réalisée par le sculpteur Jaakko Pernu est achevée en mai 2012[2].
+En été, le parc est remarquablement fleuri.
+L’œuvre Pohjan neito sculptée par Viljo Savikurki en 1967 a parfois été appelée l' Havis Amanda d'Oulu parce qu'autrefois, les étudiants la couvraient d'une casquette  lors de leur fête de Vappu du 1er mai.
+La sculpture environnementale "Vesilasi" réalisée par le sculpteur Jaakko Pernu est achevée en mai 2012.
 Le parc de Lyötty est situé entre le parc de Vaara et le parc de Karjasilta.
 </t>
         </is>
